--- a/PlayingCards/collection.xlsx
+++ b/PlayingCards/collection.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Air-Cushion Finish</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Don't Mess with Texas</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Black</t>
@@ -520,19 +520,22 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G2" s="5">
         <v>2013.0</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>10</v>
@@ -541,36 +544,39 @@
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G3" s="6">
         <v>44228.0</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="6">
         <v>44197.0</v>
@@ -579,27 +585,27 @@
         <v>44197.0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="6">
         <v>44166.0</v>
@@ -608,62 +614,68 @@
         <v>44166.0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="G6" s="6">
         <v>44197.0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="G7" s="7">
         <v>44197.0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -674,22 +686,25 @@
         <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G8" s="6">
         <v>44044.0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -700,22 +715,25 @@
         <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G9" s="6">
         <v>44044.0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -726,22 +744,25 @@
         <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="G10" s="6">
         <v>44013.0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -752,13 +773,13 @@
         <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="6">
         <v>44013.0</v>
@@ -767,10 +788,10 @@
         <v>44013.0</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -781,7 +802,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>27</v>
@@ -789,14 +810,17 @@
       <c r="E12" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="F12" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G12" s="6">
         <v>44013.0</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -807,13 +831,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="6">
         <v>44013.0</v>
@@ -822,10 +846,10 @@
         <v>44013.0</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -836,7 +860,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>41</v>
@@ -844,14 +868,17 @@
       <c r="E14" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="F14" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G14" s="6">
         <v>44013.0</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -862,7 +889,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>44</v>
@@ -870,14 +897,17 @@
       <c r="E15" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="F15" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G15" s="6">
         <v>43586.0</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -888,7 +918,7 @@
         <v>45</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>46</v>
@@ -896,14 +926,17 @@
       <c r="E16" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="F16" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G16" s="6">
         <v>43586.0</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -914,7 +947,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>48</v>
@@ -922,14 +955,17 @@
       <c r="E17" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="F17" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G17" s="6">
         <v>43586.0</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -948,11 +984,17 @@
       <c r="E18" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="F18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H18" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -963,7 +1005,7 @@
         <v>51</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>52</v>
@@ -971,11 +1013,17 @@
       <c r="E19" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="F19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H19" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PlayingCards/collection.xlsx
+++ b/PlayingCards/collection.xlsx
@@ -160,10 +160,10 @@
     <t>Green</t>
   </si>
   <si>
-    <t>Puma</t>
-  </si>
-  <si>
-    <t>LTD</t>
+    <t>Pluma</t>
+  </si>
+  <si>
+    <t>Limited</t>
   </si>
   <si>
     <t>LTD.</t>
@@ -972,7 +972,7 @@
       <c r="A18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="5" t="s">
